--- a/Data_Gathering/LuckyPick_results.xlsx
+++ b/Data_Gathering/LuckyPick_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jared\Documents\Lotto_Analysis\Data_Gathering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EED16D-105C-4EE4-B966-C43892C2460F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D588E0-9FF5-4F76-8587-A0A24714DFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{19435217-9F07-45AF-8E56-C86AEFF75592}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Winning Numbers</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Even: 4, Odd: 2</t>
+  </si>
+  <si>
+    <t>08,13,14,34,37,38</t>
+  </si>
+  <si>
+    <t>even-odd-even-even-odd-even</t>
   </si>
 </sst>
 </file>
@@ -446,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD36AD4-17B2-4E18-99A6-0FF7DD054B69}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,6 +529,35 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>34</v>
+      </c>
+      <c r="F3">
+        <v>37</v>
+      </c>
+      <c r="G3">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data_Gathering/LuckyPick_results.xlsx
+++ b/Data_Gathering/LuckyPick_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jared\Documents\Lotto_Analysis\Data_Gathering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D588E0-9FF5-4F76-8587-A0A24714DFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6488DC25-97C6-4DBC-BACB-6AA497D5C01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{19435217-9F07-45AF-8E56-C86AEFF75592}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>Winning Numbers</t>
   </si>
@@ -78,6 +78,105 @@
   </si>
   <si>
     <t>even-odd-even-even-odd-even</t>
+  </si>
+  <si>
+    <t>12,20,27,33,38,42</t>
+  </si>
+  <si>
+    <t>even-even-odd-odd-even-even</t>
+  </si>
+  <si>
+    <t>01,10,20,27,30,35</t>
+  </si>
+  <si>
+    <t>odd-even-even-odd-even-odd</t>
+  </si>
+  <si>
+    <t>Even: 3, Odd: 3</t>
+  </si>
+  <si>
+    <t>05,11,13,22,23,31</t>
+  </si>
+  <si>
+    <t>odd-odd-odd-even-odd-odd</t>
+  </si>
+  <si>
+    <t>Even: 1, Odd: 5</t>
+  </si>
+  <si>
+    <t>09,14,15,19,20,29</t>
+  </si>
+  <si>
+    <t>odd-even-odd-odd-even-odd</t>
+  </si>
+  <si>
+    <t>Even: 2, Odd: 4</t>
+  </si>
+  <si>
+    <t>08,11,20,29,33,39</t>
+  </si>
+  <si>
+    <t>even-odd-even-odd-odd-odd</t>
+  </si>
+  <si>
+    <t>05,06,14,27,30,40</t>
+  </si>
+  <si>
+    <t>odd-even-even-odd-even-even</t>
+  </si>
+  <si>
+    <t>05,13,26,30,38,39</t>
+  </si>
+  <si>
+    <t>odd-odd-even-even-even-odd</t>
+  </si>
+  <si>
+    <t>01,06,17,23,24,30</t>
+  </si>
+  <si>
+    <t>odd-even-odd-odd-even-even</t>
+  </si>
+  <si>
+    <t>13,17,19,21,23,30</t>
+  </si>
+  <si>
+    <t>odd-odd-odd-odd-odd-even</t>
+  </si>
+  <si>
+    <t>10,17,24,31,34,42</t>
+  </si>
+  <si>
+    <t>even-odd-even-odd-even-even</t>
+  </si>
+  <si>
+    <t>09,17,24,29,30,39</t>
+  </si>
+  <si>
+    <t>odd-odd-even-odd-even-odd</t>
+  </si>
+  <si>
+    <t>04,06,10,13,23,27</t>
+  </si>
+  <si>
+    <t>even-even-even-odd-odd-odd</t>
+  </si>
+  <si>
+    <t>02,11,26,34,37,38</t>
+  </si>
+  <si>
+    <t>02,03,04,26,34,36</t>
+  </si>
+  <si>
+    <t>even-odd-even-even-even-even</t>
+  </si>
+  <si>
+    <t>08,09,15,29,32,42</t>
+  </si>
+  <si>
+    <t>even-odd-odd-odd-even-even</t>
+  </si>
+  <si>
+    <t>03,11,25,28,33,35</t>
   </si>
 </sst>
 </file>
@@ -452,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD36AD4-17B2-4E18-99A6-0FF7DD054B69}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,7 +566,7 @@
     <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -502,63 +601,530 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
-      </c>
-      <c r="E2">
-        <v>28</v>
-      </c>
-      <c r="F2">
-        <v>30</v>
-      </c>
-      <c r="G2">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>28</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <v>34</v>
+      </c>
+      <c r="G5">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <v>37</v>
+      </c>
+      <c r="G6">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>33</v>
+      </c>
+      <c r="G7">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>38</v>
+      </c>
+      <c r="G11">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>29</v>
+      </c>
+      <c r="F12">
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>29</v>
+      </c>
+      <c r="F13">
+        <v>33</v>
+      </c>
+      <c r="G13">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
+      <c r="B14">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C14">
         <v>13</v>
       </c>
-      <c r="D3">
+      <c r="D14">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="E14">
         <v>34</v>
       </c>
-      <c r="F3">
+      <c r="F14">
         <v>37</v>
       </c>
-      <c r="G3">
+      <c r="G14">
         <v>38</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H14" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I14" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>29</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>31</v>
+      </c>
+      <c r="F17">
+        <v>34</v>
+      </c>
+      <c r="G17">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>33</v>
+      </c>
+      <c r="F18">
+        <v>38</v>
+      </c>
+      <c r="G18">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>21</v>
+      </c>
+      <c r="F19">
+        <v>23</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I18">
+    <sortCondition ref="A2:A18"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data_Gathering/LuckyPick_results.xlsx
+++ b/Data_Gathering/LuckyPick_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jared\Documents\Lotto_Analysis\Data_Gathering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6488DC25-97C6-4DBC-BACB-6AA497D5C01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7563F571-F792-4152-99C7-DAEE0C290FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{19435217-9F07-45AF-8E56-C86AEFF75592}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Winning Numbers</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>03,11,25,28,33,35</t>
+  </si>
+  <si>
+    <t>07,16,17,31,40,42</t>
   </si>
 </sst>
 </file>
@@ -551,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD36AD4-17B2-4E18-99A6-0FF7DD054B69}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,28 +894,28 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E12">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F12">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
@@ -920,115 +923,115 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>8</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>29</v>
       </c>
       <c r="F13">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>8</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F14">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
         <v>14</v>
       </c>
-      <c r="D15">
-        <v>15</v>
-      </c>
       <c r="E15">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F15">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G15">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>9</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E16">
+        <v>19</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
         <v>29</v>
       </c>
-      <c r="F16">
-        <v>30</v>
-      </c>
-      <c r="G16">
-        <v>39</v>
-      </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
         <v>24</v>
@@ -1036,10 +1039,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>17</v>
@@ -1048,45 +1051,45 @@
         <v>24</v>
       </c>
       <c r="E17">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F17">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G17">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F18">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G18">
         <v>42</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I18" t="s">
         <v>11</v>
@@ -1094,36 +1097,65 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>27</v>
+      </c>
+      <c r="E19">
         <v>33</v>
       </c>
-      <c r="B19">
+      <c r="F19">
+        <v>38</v>
+      </c>
+      <c r="G19">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
         <v>13</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>17</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>19</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>21</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>23</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>30</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" t="s">
         <v>34</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I20" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I18">
-    <sortCondition ref="A2:A18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I19">
+    <sortCondition ref="A2:A19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data_Gathering/LuckyPick_results.xlsx
+++ b/Data_Gathering/LuckyPick_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jared\Documents\Lotto_Analysis\Data_Gathering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7563F571-F792-4152-99C7-DAEE0C290FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B956A981-5E63-4F72-B0C8-D4CCE3EA61DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{19435217-9F07-45AF-8E56-C86AEFF75592}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>Winning Numbers</t>
   </si>
@@ -180,13 +180,16 @@
   </si>
   <si>
     <t>07,16,17,31,40,42</t>
+  </si>
+  <si>
+    <t>01,03,05,07,25,32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +201,11 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -235,10 +243,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD36AD4-17B2-4E18-99A6-0FF7DD054B69}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,59 +619,59 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>17</v>
-      </c>
-      <c r="E2">
-        <v>23</v>
-      </c>
-      <c r="F2">
-        <v>24</v>
-      </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
-        <v>18</v>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F3">
+        <v>24</v>
+      </c>
+      <c r="G3">
         <v>30</v>
       </c>
-      <c r="G3">
-        <v>35</v>
-      </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
@@ -662,36 +679,36 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <v>30</v>
       </c>
       <c r="G4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -700,222 +717,222 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
         <v>26</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>34</v>
       </c>
-      <c r="F6">
-        <v>37</v>
-      </c>
       <c r="G6">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>11</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G7">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F8">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>23</v>
+      </c>
+      <c r="G9">
         <v>27</v>
       </c>
-      <c r="F9">
-        <v>30</v>
-      </c>
-      <c r="G9">
+      <c r="H9" t="s">
         <v>40</v>
       </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F10">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G10">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
         <v>13</v>
       </c>
-      <c r="D11">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G11">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
@@ -923,28 +940,28 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E13">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F13">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G13">
         <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
         <v>18</v>
@@ -952,115 +969,115 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>8</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>29</v>
       </c>
       <c r="F14">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>8</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F15">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G15">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
         <v>14</v>
       </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
       <c r="E16">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F16">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G16">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>9</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E17">
+        <v>19</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
         <v>29</v>
       </c>
-      <c r="F17">
-        <v>30</v>
-      </c>
-      <c r="G17">
-        <v>39</v>
-      </c>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I17" t="s">
         <v>24</v>
@@ -1068,10 +1085,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1080,45 +1097,45 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F18">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G18">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F19">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -1126,37 +1143,67 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>27</v>
+      </c>
+      <c r="E20">
         <v>33</v>
       </c>
-      <c r="B20">
+      <c r="F20">
+        <v>38</v>
+      </c>
+      <c r="G20">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
         <v>13</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>17</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>19</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>21</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>23</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>30</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
         <v>34</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I21" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I19">
-    <sortCondition ref="A2:A19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I20">
+    <sortCondition ref="A3:A20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>